--- a/series_sc/personas_mes_sexo.xlsx
+++ b/series_sc/personas_mes_sexo.xlsx
@@ -374,25 +374,20 @@
     <t>Total general</t>
   </si>
   <si>
-    <t>Solicitudes de prestaciones por cesantía efectivamente pagadas</t>
-  </si>
-  <si>
-    <t>Afiliados que recibieron pago de la prestación por cesantía</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Solicitudes de prestaciones por cesantia efectivamente pagadas</t>
+  </si>
+  <si>
+    <t>Afiliados que recibieron pago de la prestacion por cesantia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -538,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4572,7 +4567,7 @@
   <dimension ref="A1:D330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4585,10 +4580,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7676,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -7684,7 +7679,7 @@
         <v>7</v>
       </c>
       <c r="B223" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7692,7 +7687,7 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -7700,7 +7695,7 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -7708,7 +7703,7 @@
         <v>10</v>
       </c>
       <c r="B226" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -7716,7 +7711,7 @@
         <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -7724,7 +7719,7 @@
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -7732,7 +7727,7 @@
         <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -7740,7 +7735,7 @@
         <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -7748,7 +7743,7 @@
         <v>15</v>
       </c>
       <c r="B231" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -7756,7 +7751,7 @@
         <v>16</v>
       </c>
       <c r="B232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -7764,7 +7759,7 @@
         <v>17</v>
       </c>
       <c r="B233" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -7772,7 +7767,7 @@
         <v>18</v>
       </c>
       <c r="B234" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -7780,7 +7775,7 @@
         <v>19</v>
       </c>
       <c r="B235" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -7788,7 +7783,7 @@
         <v>20</v>
       </c>
       <c r="B236" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -7796,7 +7791,7 @@
         <v>21</v>
       </c>
       <c r="B237" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -7804,7 +7799,7 @@
         <v>22</v>
       </c>
       <c r="B238" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -7812,7 +7807,7 @@
         <v>23</v>
       </c>
       <c r="B239" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -7820,7 +7815,7 @@
         <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -7828,7 +7823,7 @@
         <v>25</v>
       </c>
       <c r="B241" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -7836,7 +7831,7 @@
         <v>26</v>
       </c>
       <c r="B242" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -7844,7 +7839,7 @@
         <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -7852,7 +7847,7 @@
         <v>28</v>
       </c>
       <c r="B244" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -7860,7 +7855,7 @@
         <v>29</v>
       </c>
       <c r="B245" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -7868,7 +7863,7 @@
         <v>30</v>
       </c>
       <c r="B246" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -7876,7 +7871,7 @@
         <v>31</v>
       </c>
       <c r="B247" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -7884,7 +7879,7 @@
         <v>32</v>
       </c>
       <c r="B248" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -7892,7 +7887,7 @@
         <v>33</v>
       </c>
       <c r="B249" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -7900,7 +7895,7 @@
         <v>34</v>
       </c>
       <c r="B250" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -7908,7 +7903,7 @@
         <v>35</v>
       </c>
       <c r="B251" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -7916,7 +7911,7 @@
         <v>36</v>
       </c>
       <c r="B252" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -7924,7 +7919,7 @@
         <v>37</v>
       </c>
       <c r="B253" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -7932,7 +7927,7 @@
         <v>38</v>
       </c>
       <c r="B254" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -7940,7 +7935,7 @@
         <v>39</v>
       </c>
       <c r="B255" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -7948,7 +7943,7 @@
         <v>40</v>
       </c>
       <c r="B256" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -7956,7 +7951,7 @@
         <v>41</v>
       </c>
       <c r="B257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -7964,7 +7959,7 @@
         <v>42</v>
       </c>
       <c r="B258" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -7972,7 +7967,7 @@
         <v>43</v>
       </c>
       <c r="B259" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -7980,7 +7975,7 @@
         <v>44</v>
       </c>
       <c r="B260" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -7988,7 +7983,7 @@
         <v>45</v>
       </c>
       <c r="B261" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -7996,7 +7991,7 @@
         <v>46</v>
       </c>
       <c r="B262" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -8004,7 +7999,7 @@
         <v>47</v>
       </c>
       <c r="B263" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -8012,7 +8007,7 @@
         <v>48</v>
       </c>
       <c r="B264" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -8020,7 +8015,7 @@
         <v>49</v>
       </c>
       <c r="B265" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -8028,7 +8023,7 @@
         <v>50</v>
       </c>
       <c r="B266" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -8036,7 +8031,7 @@
         <v>51</v>
       </c>
       <c r="B267" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -8044,7 +8039,7 @@
         <v>52</v>
       </c>
       <c r="B268" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -8052,7 +8047,7 @@
         <v>53</v>
       </c>
       <c r="B269" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -8060,7 +8055,7 @@
         <v>54</v>
       </c>
       <c r="B270" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -8068,7 +8063,7 @@
         <v>55</v>
       </c>
       <c r="B271" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -8076,7 +8071,7 @@
         <v>56</v>
       </c>
       <c r="B272" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -8084,7 +8079,7 @@
         <v>57</v>
       </c>
       <c r="B273" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -8092,7 +8087,7 @@
         <v>58</v>
       </c>
       <c r="B274" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -8100,7 +8095,7 @@
         <v>59</v>
       </c>
       <c r="B275" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -8108,7 +8103,7 @@
         <v>60</v>
       </c>
       <c r="B276" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -8116,7 +8111,7 @@
         <v>61</v>
       </c>
       <c r="B277" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -8124,7 +8119,7 @@
         <v>62</v>
       </c>
       <c r="B278" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -8132,7 +8127,7 @@
         <v>63</v>
       </c>
       <c r="B279" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -8140,7 +8135,7 @@
         <v>64</v>
       </c>
       <c r="B280" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -8148,7 +8143,7 @@
         <v>65</v>
       </c>
       <c r="B281" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -8156,7 +8151,7 @@
         <v>66</v>
       </c>
       <c r="B282" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -8164,7 +8159,7 @@
         <v>67</v>
       </c>
       <c r="B283" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -8172,7 +8167,7 @@
         <v>68</v>
       </c>
       <c r="B284" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -8180,7 +8175,7 @@
         <v>69</v>
       </c>
       <c r="B285" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -8188,7 +8183,7 @@
         <v>70</v>
       </c>
       <c r="B286" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -8196,7 +8191,7 @@
         <v>71</v>
       </c>
       <c r="B287" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -8204,7 +8199,7 @@
         <v>72</v>
       </c>
       <c r="B288" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -8212,7 +8207,7 @@
         <v>73</v>
       </c>
       <c r="B289" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -8220,7 +8215,7 @@
         <v>74</v>
       </c>
       <c r="B290" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -8228,7 +8223,7 @@
         <v>75</v>
       </c>
       <c r="B291" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -8236,7 +8231,7 @@
         <v>76</v>
       </c>
       <c r="B292" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -8244,7 +8239,7 @@
         <v>77</v>
       </c>
       <c r="B293" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -8252,7 +8247,7 @@
         <v>78</v>
       </c>
       <c r="B294" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -8260,7 +8255,7 @@
         <v>79</v>
       </c>
       <c r="B295" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -8268,7 +8263,7 @@
         <v>80</v>
       </c>
       <c r="B296" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -8276,7 +8271,7 @@
         <v>81</v>
       </c>
       <c r="B297" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -8284,7 +8279,7 @@
         <v>82</v>
       </c>
       <c r="B298" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -8292,7 +8287,7 @@
         <v>83</v>
       </c>
       <c r="B299" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -8300,7 +8295,7 @@
         <v>84</v>
       </c>
       <c r="B300" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -8308,7 +8303,7 @@
         <v>85</v>
       </c>
       <c r="B301" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -8316,7 +8311,7 @@
         <v>86</v>
       </c>
       <c r="B302" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -8324,7 +8319,7 @@
         <v>87</v>
       </c>
       <c r="B303" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -8332,7 +8327,7 @@
         <v>88</v>
       </c>
       <c r="B304" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -8340,7 +8335,7 @@
         <v>89</v>
       </c>
       <c r="B305" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -8348,7 +8343,7 @@
         <v>90</v>
       </c>
       <c r="B306" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -8356,7 +8351,7 @@
         <v>91</v>
       </c>
       <c r="B307" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -8364,7 +8359,7 @@
         <v>92</v>
       </c>
       <c r="B308" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -8372,7 +8367,7 @@
         <v>93</v>
       </c>
       <c r="B309" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -8380,7 +8375,7 @@
         <v>94</v>
       </c>
       <c r="B310" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -8388,7 +8383,7 @@
         <v>95</v>
       </c>
       <c r="B311" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -8396,7 +8391,7 @@
         <v>96</v>
       </c>
       <c r="B312" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -8404,7 +8399,7 @@
         <v>97</v>
       </c>
       <c r="B313" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -8412,7 +8407,7 @@
         <v>98</v>
       </c>
       <c r="B314" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -8420,7 +8415,7 @@
         <v>99</v>
       </c>
       <c r="B315" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -8428,7 +8423,7 @@
         <v>100</v>
       </c>
       <c r="B316" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -8436,7 +8431,7 @@
         <v>101</v>
       </c>
       <c r="B317" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -8444,7 +8439,7 @@
         <v>102</v>
       </c>
       <c r="B318" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -8452,7 +8447,7 @@
         <v>103</v>
       </c>
       <c r="B319" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -8460,7 +8455,7 @@
         <v>104</v>
       </c>
       <c r="B320" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -8468,7 +8463,7 @@
         <v>105</v>
       </c>
       <c r="B321" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -8476,7 +8471,7 @@
         <v>106</v>
       </c>
       <c r="B322" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -8484,7 +8479,7 @@
         <v>107</v>
       </c>
       <c r="B323" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -8492,7 +8487,7 @@
         <v>108</v>
       </c>
       <c r="B324" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -8500,7 +8495,7 @@
         <v>109</v>
       </c>
       <c r="B325" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -8508,7 +8503,7 @@
         <v>110</v>
       </c>
       <c r="B326" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -8516,7 +8511,7 @@
         <v>111</v>
       </c>
       <c r="B327" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -8524,7 +8519,7 @@
         <v>112</v>
       </c>
       <c r="B328" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -8532,7 +8527,7 @@
         <v>113</v>
       </c>
       <c r="B329" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -8540,7 +8535,7 @@
         <v>114</v>
       </c>
       <c r="B330" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
